--- a/data/trans_orig/P14C34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C3EE878-2886-4BAE-92A7-8D254B4C8DA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09859E77-966D-4ED7-AE22-4BABDC8544FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{94282825-E66F-4A8D-B901-6281B3099DB4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15F992B3-AB53-443F-AAC1-92FE3E3A9377}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -74,10 +74,10 @@
     <t>53,33%</t>
   </si>
   <si>
-    <t>31,01%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>—%</t>
@@ -89,10 +89,10 @@
     <t>35,13%</t>
   </si>
   <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>33,88%</t>
+    <t>35,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -116,28 +116,28 @@
     <t>43,23%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
   </si>
   <si>
     <t>29,19%</t>
   </si>
   <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -146,19 +146,19 @@
     <t>51,46%</t>
   </si>
   <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
   </si>
   <si>
     <t>0%</t>
@@ -173,25 +173,25 @@
     <t>63,72%</t>
   </si>
   <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>48,29%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>45,36%</t>
+    <t>41,76%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -236,28 +236,28 @@
     <t>49,94%</t>
   </si>
   <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -266,52 +266,52 @@
     <t>58,57%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>51,89%</t>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>55,41%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>26,53%</t>
+    <t>25,05%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -726,7 +726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB81A3C6-07F3-478B-ACBA-00F2682DEE27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F78E94D-F6D9-4913-8644-E88FBA429482}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P14C34-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14C34-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{09859E77-966D-4ED7-AE22-4BABDC8544FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{673EB877-ECCE-47D1-8140-B233F09F3AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{15F992B3-AB53-443F-AAC1-92FE3E3A9377}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5F3CFBE1-0DC2-4B18-AC50-92F06957C810}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="93">
-  <si>
-    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2015 (Tasa respuesta: 1,72%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="92">
+  <si>
+    <t>Población según el tiempo de diagnóstico del trastornos de próstata en 2016 (Tasa respuesta: 1,72%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,10 +74,10 @@
     <t>53,33%</t>
   </si>
   <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>29,9%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
   </si>
   <si>
     <t>—%</t>
@@ -89,10 +89,10 @@
     <t>35,13%</t>
   </si>
   <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>35,46%</t>
+    <t>33,95%</t>
   </si>
   <si>
     <t>100%</t>
@@ -116,28 +116,25 @@
     <t>43,23%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>76,29%</t>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>27,58%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
   </si>
   <si>
     <t>29,19%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>63,91%</t>
+    <t>61,47%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -146,19 +143,19 @@
     <t>51,46%</t>
   </si>
   <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
   </si>
   <si>
     <t>48,54%</t>
   </si>
   <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>72,69%</t>
   </si>
   <si>
     <t>0%</t>
@@ -173,25 +170,25 @@
     <t>63,72%</t>
   </si>
   <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>85,4%</t>
   </si>
   <si>
     <t>22,13%</t>
   </si>
   <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>48,29%</t>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>53,82%</t>
   </si>
   <si>
     <t>14,14%</t>
   </si>
   <si>
-    <t>41,76%</t>
+    <t>45,35%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -221,13 +218,13 @@
     <t>82,05%</t>
   </si>
   <si>
-    <t>32,06%</t>
+    <t>28,76%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>67,94%</t>
+    <t>71,24%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -236,28 +233,28 @@
     <t>49,94%</t>
   </si>
   <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>72,66%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
   </si>
   <si>
     <t>22,1%</t>
   </si>
   <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -266,52 +263,52 @@
     <t>58,57%</t>
   </si>
   <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>32,94%</t>
   </si>
   <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>55,41%</t>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>25,05%</t>
+    <t>26,28%</t>
   </si>
   <si>
     <t>56,71%</t>
   </si>
   <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>31,39%</t>
   </si>
   <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
   </si>
   <si>
     <t>11,89%</t>
   </si>
   <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -726,7 +723,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F78E94D-F6D9-4913-8644-E88FBA429482}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C858EA7-CE15-4DF0-83B6-967BBEC16B0D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1149,10 +1146,10 @@
         <v>31</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1177,10 +1174,10 @@
         <v>31</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1234,7 +1231,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1246,13 +1243,13 @@
         <v>8285</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1274,13 +1271,13 @@
         <v>8285</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1295,13 +1292,13 @@
         <v>7814</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1323,13 +1320,13 @@
         <v>7814</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1347,10 +1344,10 @@
         <v>21</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1375,10 +1372,10 @@
         <v>21</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1432,7 +1429,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1444,13 +1441,13 @@
         <v>8060</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1472,13 +1469,13 @@
         <v>8060</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1493,13 +1490,13 @@
         <v>2800</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1521,13 +1518,13 @@
         <v>2800</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,13 +1539,13 @@
         <v>1789</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1570,13 +1567,13 @@
         <v>1789</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,7 +1627,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1642,13 +1639,13 @@
         <v>4484</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1670,13 +1667,13 @@
         <v>4484</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1691,13 +1688,13 @@
         <v>891</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1719,13 +1716,13 @@
         <v>891</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1743,10 +1740,10 @@
         <v>21</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1771,10 +1768,10 @@
         <v>21</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,7 +1825,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -1840,13 +1837,13 @@
         <v>4453</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="G24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -1868,13 +1865,13 @@
         <v>4453</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="P24" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1889,13 +1886,13 @@
         <v>974</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -1917,13 +1914,13 @@
         <v>974</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,10 +1938,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -1969,10 +1966,10 @@
         <v>21</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2026,7 +2023,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2038,13 +2035,13 @@
         <v>9466</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -2066,13 +2063,13 @@
         <v>9466</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2087,13 +2084,13 @@
         <v>5300</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2115,13 +2112,13 @@
         <v>5300</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2136,13 +2133,13 @@
         <v>4188</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2164,13 +2161,13 @@
         <v>4188</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2224,7 +2221,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>10</v>
@@ -2236,13 +2233,13 @@
         <v>12941</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="G32" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -2264,13 +2261,13 @@
         <v>12941</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2285,13 +2282,13 @@
         <v>7278</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="G33" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H33" s="7">
         <v>0</v>
@@ -2313,13 +2310,13 @@
         <v>7278</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="Q33" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2334,13 +2331,13 @@
         <v>1876</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H34" s="7">
         <v>0</v>
@@ -2362,13 +2359,13 @@
         <v>1876</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2431,13 @@
         <v>61303</v>
       </c>
       <c r="E36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="G36" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="H36" s="7">
         <v>0</v>
@@ -2462,13 +2459,13 @@
         <v>61303</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,13 +2480,13 @@
         <v>33931</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -2511,13 +2508,13 @@
         <v>33931</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2529,13 @@
         <v>12857</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -2560,13 +2557,13 @@
         <v>12857</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2617,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
